--- a/biology/Botanique/Souvenir_de_Gabrielle_Drevet/Souvenir_de_Gabrielle_Drevet.xlsx
+++ b/biology/Botanique/Souvenir_de_Gabrielle_Drevet/Souvenir_de_Gabrielle_Drevet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Souvenir de Gabrielle Drevet' est un cultivar de rosier obtenu en 1884 par les rosiéristes français Guillot père et fils[1].
+'Souvenir de Gabrielle Drevet' est un cultivar de rosier obtenu en 1884 par les rosiéristes français Guillot père et fils.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce rosier thé aux fleurs abricot, au cœur rose saumoné et aux nuances cuivrées, était très en vogue au tournant du XIXe siècle et du XXe siècle ; il est devenu très rare aujourd'hui en Europe continentale. Ses fleurs sont grandes et doubles (17-25 pétales), fleurissant plutôt en solitaires. La floraison est remontante[2].
-Il se présente comme un buisson presque inerme au feuillage vert foncé. Sa zone de rusticité est de 6b à 9b, il est donc résistant aux hivers froids[2].  
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce rosier thé aux fleurs abricot, au cœur rose saumoné et aux nuances cuivrées, était très en vogue au tournant du XIXe siècle et du XXe siècle ; il est devenu très rare aujourd'hui en Europe continentale. Ses fleurs sont grandes et doubles (17-25 pétales), fleurissant plutôt en solitaires. La floraison est remontante.
+Il se présente comme un buisson presque inerme au feuillage vert foncé. Sa zone de rusticité est de 6b à 9b, il est donc résistant aux hivers froids.  
 Elle est généralement offerte chaque année aux étudiantes du Master de Droit international de l'Université Paris-Nanterre.  
 </t>
         </is>
